--- a/Random Forest/file1.xlsx
+++ b/Random Forest/file1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ספיר יהודה\Satellite-communication\SVM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ספיר יהודה\Satellite-communication\Random Forest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384DBA7E-FF16-4AD7-9E36-A65C54C5A7C9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280ACD54-1C68-43B4-B63C-AF9334856E9F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -441,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S541"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="L219" workbookViewId="0">
+      <selection activeCell="S221" sqref="S221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -13496,7 +13496,7 @@
         <v>3.9751449572698501E-2</v>
       </c>
       <c r="S221">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="222" spans="1:19" x14ac:dyDescent="0.3">
@@ -32199,7 +32199,7 @@
         <v>0.142564600129197</v>
       </c>
       <c r="S538">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="539" spans="1:19" x14ac:dyDescent="0.3">
